--- a/westeros_tutorial/input/Parameter_TechnologyParent_TechnicalLifetime.xlsx
+++ b/westeros_tutorial/input/Parameter_TechnologyParent_TechnicalLifetime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/MESSAGE-China/projects/westeros_baseline/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/message_westeros/westeros_tutorial/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FFA2A0-E60F-764B-8779-D4C158C9242D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2F8F4F-FFB8-DA47-947B-C21F803F8109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="-18580" windowWidth="30240" windowHeight="17380" xr2:uid="{6A43CB06-E55E-0F45-9223-72CF49A70756}"/>
+    <workbookView xWindow="-35040" yWindow="-21100" windowWidth="30240" windowHeight="17380" xr2:uid="{6A43CB06-E55E-0F45-9223-72CF49A70756}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Westeros</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>690</t>
   </si>
 </sst>
 </file>
@@ -124,12 +127,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54256EBC-F721-EF4E-816A-9D1CC202192F}" name="Table2" displayName="Table2" ref="A1:F4" totalsRowShown="0">
-  <autoFilter ref="A1:F4" xr:uid="{54256EBC-F721-EF4E-816A-9D1CC202192F}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54256EBC-F721-EF4E-816A-9D1CC202192F}" name="Table2" displayName="Table2" ref="A1:G4" totalsRowShown="0">
+  <autoFilter ref="A1:G4" xr:uid="{54256EBC-F721-EF4E-816A-9D1CC202192F}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{13444734-87C8-CB43-BD08-2E1E34C885A8}" name="technology"/>
     <tableColumn id="2" xr3:uid="{7DA43B6B-5A35-824A-8030-F481195242FD}" name="node_loc"/>
     <tableColumn id="3" xr3:uid="{C09435A3-D2B7-DA42-A372-65251EDC9FE0}" name="unit"/>
+    <tableColumn id="7" xr3:uid="{0F61D2FE-1F75-4849-A7A1-E90A1AD5F6DC}" name="690"/>
     <tableColumn id="4" xr3:uid="{9243C500-B65B-204E-8A83-E99D05292C82}" name="700"/>
     <tableColumn id="5" xr3:uid="{05E294E5-51AE-674E-89C6-E3E963F2DD83}" name="710"/>
     <tableColumn id="6" xr3:uid="{745FA927-946E-FA4F-8593-3F20BD573672}" name="720"/>
@@ -435,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1826FC5-ED33-DA4B-8A36-FF13F1B89160}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -454,16 +458,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -482,8 +489,11 @@
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -502,8 +512,11 @@
       <c r="F3">
         <v>20</v>
       </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -520,6 +533,9 @@
         <v>20</v>
       </c>
       <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
         <v>20</v>
       </c>
     </row>
